--- a/data/pca/factorExposure/factorExposure_2011-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02442650687210322</v>
+        <v>-0.01576163658233226</v>
       </c>
       <c r="C2">
-        <v>-0.004067326831943025</v>
+        <v>0.001255812102161159</v>
       </c>
       <c r="D2">
-        <v>-0.06078774717667531</v>
+        <v>-0.03094833214401687</v>
       </c>
       <c r="E2">
-        <v>-0.03156154916573195</v>
+        <v>-0.01760434010657949</v>
       </c>
       <c r="F2">
-        <v>0.01336051793698194</v>
+        <v>-0.01166755386368189</v>
       </c>
       <c r="G2">
-        <v>-0.04169270540481786</v>
+        <v>-0.02529161921557438</v>
       </c>
       <c r="H2">
-        <v>0.02652281131797282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02710593318092672</v>
+      </c>
+      <c r="I2">
+        <v>-0.03382413923297857</v>
+      </c>
+      <c r="J2">
+        <v>-0.07324908107963915</v>
+      </c>
+      <c r="K2">
+        <v>-0.03151067717879368</v>
+      </c>
+      <c r="L2">
+        <v>0.04874736424255132</v>
+      </c>
+      <c r="M2">
+        <v>-0.02327491032807903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06647301385719658</v>
+        <v>-0.09611825392980079</v>
       </c>
       <c r="C4">
-        <v>0.06864280000110182</v>
+        <v>-0.07276907113778422</v>
       </c>
       <c r="D4">
-        <v>-0.02553218569609316</v>
+        <v>-0.01007209641003549</v>
       </c>
       <c r="E4">
-        <v>-0.02831674576531053</v>
+        <v>-0.06696369921549297</v>
       </c>
       <c r="F4">
-        <v>-0.04689811980144874</v>
+        <v>-0.06914736737178821</v>
       </c>
       <c r="G4">
-        <v>-0.01959206818728842</v>
+        <v>-0.02143755644650453</v>
       </c>
       <c r="H4">
-        <v>-0.02604528136502669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.08419423265969225</v>
+      </c>
+      <c r="I4">
+        <v>-0.007880147387072883</v>
+      </c>
+      <c r="J4">
+        <v>0.0460369506430259</v>
+      </c>
+      <c r="K4">
+        <v>0.02676257075194738</v>
+      </c>
+      <c r="L4">
+        <v>0.03917757901875899</v>
+      </c>
+      <c r="M4">
+        <v>-0.01967721555041315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1264738078169247</v>
+        <v>-0.1310239200506499</v>
       </c>
       <c r="C6">
-        <v>0.05068779782241015</v>
+        <v>-0.0487825652603858</v>
       </c>
       <c r="D6">
-        <v>-0.06464634812377289</v>
+        <v>-0.03148832287546142</v>
       </c>
       <c r="E6">
-        <v>-0.06829215433830566</v>
+        <v>-0.003779850997399968</v>
       </c>
       <c r="F6">
-        <v>-0.06364107220083338</v>
+        <v>-0.06241001782113977</v>
       </c>
       <c r="G6">
-        <v>0.07172009654470179</v>
+        <v>0.1490447199050426</v>
       </c>
       <c r="H6">
-        <v>0.1025997458014695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1170069702739683</v>
+      </c>
+      <c r="I6">
+        <v>-0.3707131726072818</v>
+      </c>
+      <c r="J6">
+        <v>0.2367613035369478</v>
+      </c>
+      <c r="K6">
+        <v>0.06933015016985355</v>
+      </c>
+      <c r="L6">
+        <v>-0.1090414652400776</v>
+      </c>
+      <c r="M6">
+        <v>0.004937165439854463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06693753611741758</v>
+        <v>-0.06833028055377127</v>
       </c>
       <c r="C7">
-        <v>0.05113296674956284</v>
+        <v>-0.07253991174663978</v>
       </c>
       <c r="D7">
-        <v>-0.05791393055962565</v>
+        <v>-0.03989256744949746</v>
       </c>
       <c r="E7">
-        <v>-0.02362650116917899</v>
+        <v>-0.02280091059164102</v>
       </c>
       <c r="F7">
-        <v>-0.03932295826582203</v>
+        <v>-0.01919415032988106</v>
       </c>
       <c r="G7">
-        <v>0.03889600143332622</v>
+        <v>-0.006307384997600128</v>
       </c>
       <c r="H7">
-        <v>0.0006118751542409886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.06174888770870467</v>
+      </c>
+      <c r="I7">
+        <v>0.07469283081111421</v>
+      </c>
+      <c r="J7">
+        <v>-0.01815257006135203</v>
+      </c>
+      <c r="K7">
+        <v>0.01308085384293048</v>
+      </c>
+      <c r="L7">
+        <v>0.04184536771958107</v>
+      </c>
+      <c r="M7">
+        <v>0.1059814594014491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02051105628394509</v>
+        <v>-0.03422708409035054</v>
       </c>
       <c r="C8">
-        <v>0.01500474821298423</v>
+        <v>-0.008535595533489721</v>
       </c>
       <c r="D8">
-        <v>-0.0400549487134462</v>
+        <v>-0.02230389248965936</v>
       </c>
       <c r="E8">
-        <v>-0.07667068246749117</v>
+        <v>-0.0691660718287679</v>
       </c>
       <c r="F8">
-        <v>0.004587347358796894</v>
+        <v>-0.08707728716246153</v>
       </c>
       <c r="G8">
-        <v>0.008022177242427254</v>
+        <v>-0.0008677715015918462</v>
       </c>
       <c r="H8">
-        <v>0.03549368906030044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.08182851281530905</v>
+      </c>
+      <c r="I8">
+        <v>0.007289814299298409</v>
+      </c>
+      <c r="J8">
+        <v>0.03930954730812048</v>
+      </c>
+      <c r="K8">
+        <v>0.05909010047872319</v>
+      </c>
+      <c r="L8">
+        <v>0.02416442502148876</v>
+      </c>
+      <c r="M8">
+        <v>-0.07511540950002146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06917517674911429</v>
+        <v>-0.08242364077355011</v>
       </c>
       <c r="C9">
-        <v>0.08199555974731695</v>
+        <v>-0.06775934419336238</v>
       </c>
       <c r="D9">
-        <v>-0.03366184597717414</v>
+        <v>-0.01029889043552991</v>
       </c>
       <c r="E9">
-        <v>-0.02682953585586423</v>
+        <v>-0.04471946157509053</v>
       </c>
       <c r="F9">
-        <v>-0.0286319767528633</v>
+        <v>-0.07314031819587874</v>
       </c>
       <c r="G9">
-        <v>-0.02299726799113914</v>
+        <v>-0.021734296622221</v>
       </c>
       <c r="H9">
-        <v>-0.02232613036826859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.09168293283335467</v>
+      </c>
+      <c r="I9">
+        <v>-0.002093439618174695</v>
+      </c>
+      <c r="J9">
+        <v>0.01237383360227707</v>
+      </c>
+      <c r="K9">
+        <v>0.02013363197711506</v>
+      </c>
+      <c r="L9">
+        <v>0.01185303582051635</v>
+      </c>
+      <c r="M9">
+        <v>-0.00850363598549478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05851737500485891</v>
+        <v>-0.1071442322894934</v>
       </c>
       <c r="C10">
-        <v>-0.1344848134003023</v>
+        <v>0.1686002022639971</v>
       </c>
       <c r="D10">
-        <v>-0.05773751671924027</v>
+        <v>-0.02622303036451663</v>
       </c>
       <c r="E10">
-        <v>-0.02323461033905537</v>
+        <v>-0.04415730653717793</v>
       </c>
       <c r="F10">
-        <v>-0.01094775797644812</v>
+        <v>0.03815367557568164</v>
       </c>
       <c r="G10">
-        <v>0.04534030654010279</v>
+        <v>0.01823689362707773</v>
       </c>
       <c r="H10">
-        <v>0.05177177660998993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.005564784316767628</v>
+      </c>
+      <c r="I10">
+        <v>0.02863991770961981</v>
+      </c>
+      <c r="J10">
+        <v>-0.0456102265004048</v>
+      </c>
+      <c r="K10">
+        <v>-0.006041044412575456</v>
+      </c>
+      <c r="L10">
+        <v>-0.02994348091250019</v>
+      </c>
+      <c r="M10">
+        <v>0.0474682333428813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06530134075843334</v>
+        <v>-0.06752304470932406</v>
       </c>
       <c r="C11">
-        <v>0.08926551684628869</v>
+        <v>-0.07011134382288248</v>
       </c>
       <c r="D11">
-        <v>-0.04380736550900007</v>
+        <v>-0.02287412378667299</v>
       </c>
       <c r="E11">
-        <v>-0.00600391600077111</v>
+        <v>-0.01863724637437191</v>
       </c>
       <c r="F11">
-        <v>0.02828219445597762</v>
+        <v>-0.08786308186334421</v>
       </c>
       <c r="G11">
-        <v>-0.02669032064223451</v>
+        <v>-0.02060674416283073</v>
       </c>
       <c r="H11">
-        <v>-0.02014037854406157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06414050621077977</v>
+      </c>
+      <c r="I11">
+        <v>0.06758539227184442</v>
+      </c>
+      <c r="J11">
+        <v>-0.08767825731384836</v>
+      </c>
+      <c r="K11">
+        <v>-0.009658030802450247</v>
+      </c>
+      <c r="L11">
+        <v>-0.05880134300739606</v>
+      </c>
+      <c r="M11">
+        <v>-0.00216170667229834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05912041887878594</v>
+        <v>-0.06784212122584836</v>
       </c>
       <c r="C12">
-        <v>0.05324372930444107</v>
+        <v>-0.05795261938204808</v>
       </c>
       <c r="D12">
-        <v>-0.02007467843594406</v>
+        <v>-0.008760882240626863</v>
       </c>
       <c r="E12">
-        <v>-0.01103840684053733</v>
+        <v>-0.02161427727252162</v>
       </c>
       <c r="F12">
-        <v>-0.01228180156122731</v>
+        <v>-0.08656249759675372</v>
       </c>
       <c r="G12">
-        <v>0.01326478621913982</v>
+        <v>-0.01811584946673296</v>
       </c>
       <c r="H12">
-        <v>-0.02608738158393596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.0702043791701092</v>
+      </c>
+      <c r="I12">
+        <v>0.05815882609880674</v>
+      </c>
+      <c r="J12">
+        <v>-0.08879243887044662</v>
+      </c>
+      <c r="K12">
+        <v>0.05802714126714882</v>
+      </c>
+      <c r="L12">
+        <v>-0.05203682655682888</v>
+      </c>
+      <c r="M12">
+        <v>-0.007593063474017906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05357017683878226</v>
+        <v>-0.05106409506903602</v>
       </c>
       <c r="C13">
-        <v>0.02015848421453665</v>
+        <v>-0.03621466102216307</v>
       </c>
       <c r="D13">
-        <v>-0.007704576469430684</v>
+        <v>0.0004093387609439561</v>
       </c>
       <c r="E13">
-        <v>-0.02094652312138824</v>
+        <v>-0.032317083438238</v>
       </c>
       <c r="F13">
-        <v>0.006648459460519462</v>
+        <v>-0.03500003241066645</v>
       </c>
       <c r="G13">
-        <v>-0.02780674864588211</v>
+        <v>-0.02310499673645641</v>
       </c>
       <c r="H13">
-        <v>-0.04116613259103766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03416541207416682</v>
+      </c>
+      <c r="I13">
+        <v>0.03336783872247372</v>
+      </c>
+      <c r="J13">
+        <v>0.04107180364140053</v>
+      </c>
+      <c r="K13">
+        <v>0.05909071964477482</v>
+      </c>
+      <c r="L13">
+        <v>0.03728622261630656</v>
+      </c>
+      <c r="M13">
+        <v>0.01342754068030467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04298340572861635</v>
+        <v>-0.04626604967013461</v>
       </c>
       <c r="C14">
-        <v>0.01914819785168214</v>
+        <v>-0.02746295326517831</v>
       </c>
       <c r="D14">
-        <v>-0.01739543215548069</v>
+        <v>-0.01350763973722515</v>
       </c>
       <c r="E14">
-        <v>-0.01218432270228144</v>
+        <v>-0.01513592316322064</v>
       </c>
       <c r="F14">
-        <v>-0.04003360539820995</v>
+        <v>-0.05567639873453951</v>
       </c>
       <c r="G14">
-        <v>-0.002270099318543979</v>
+        <v>-0.04603967151053873</v>
       </c>
       <c r="H14">
-        <v>0.04148194314900636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.0699143052296774</v>
+      </c>
+      <c r="I14">
+        <v>0.005697811099865884</v>
+      </c>
+      <c r="J14">
+        <v>0.03757628374304879</v>
+      </c>
+      <c r="K14">
+        <v>-0.001843061576310418</v>
+      </c>
+      <c r="L14">
+        <v>0.007362425981804212</v>
+      </c>
+      <c r="M14">
+        <v>0.02270767563111078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03796819286371367</v>
+        <v>-0.03502024996315428</v>
       </c>
       <c r="C15">
-        <v>-0.005745126103415293</v>
+        <v>-0.01280697155066309</v>
       </c>
       <c r="D15">
-        <v>0.007476410891329334</v>
+        <v>0.01545619895848114</v>
       </c>
       <c r="E15">
-        <v>-0.02939690618223486</v>
+        <v>-0.0135296028996619</v>
       </c>
       <c r="F15">
-        <v>-0.0261940667798752</v>
+        <v>-0.02362608564069378</v>
       </c>
       <c r="G15">
-        <v>-0.00345745930949284</v>
+        <v>0.004084004691939402</v>
       </c>
       <c r="H15">
-        <v>-0.01612820874654555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03969399043685735</v>
+      </c>
+      <c r="I15">
+        <v>0.01567031365175918</v>
+      </c>
+      <c r="J15">
+        <v>0.05923340025312977</v>
+      </c>
+      <c r="K15">
+        <v>0.00958027526037821</v>
+      </c>
+      <c r="L15">
+        <v>0.012161113944619</v>
+      </c>
+      <c r="M15">
+        <v>0.001007146017326245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04821271876091169</v>
+        <v>-0.06855617604692155</v>
       </c>
       <c r="C16">
-        <v>0.08089665925926343</v>
+        <v>-0.07622762117083411</v>
       </c>
       <c r="D16">
-        <v>-0.02442019765534294</v>
+        <v>-0.01309802991635594</v>
       </c>
       <c r="E16">
-        <v>-0.01915700836387521</v>
+        <v>-0.03080123081100605</v>
       </c>
       <c r="F16">
-        <v>-0.02229450584839295</v>
+        <v>-0.07763226199527405</v>
       </c>
       <c r="G16">
-        <v>-0.02175902490271881</v>
+        <v>-0.02067017215724162</v>
       </c>
       <c r="H16">
-        <v>-0.00333810742889033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.08580109255088941</v>
+      </c>
+      <c r="I16">
+        <v>0.06503924745653818</v>
+      </c>
+      <c r="J16">
+        <v>-0.07471862591659839</v>
+      </c>
+      <c r="K16">
+        <v>0.004441139721764692</v>
+      </c>
+      <c r="L16">
+        <v>-0.03165881903510716</v>
+      </c>
+      <c r="M16">
+        <v>-0.000628689698506395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04039946186001386</v>
+        <v>-0.043218210234625</v>
       </c>
       <c r="C20">
-        <v>0.04602074555197248</v>
+        <v>-0.0368346923544088</v>
       </c>
       <c r="D20">
-        <v>-0.0287072069192831</v>
+        <v>-0.02205539223726517</v>
       </c>
       <c r="E20">
-        <v>-0.02190478402290103</v>
+        <v>-0.01311813504477411</v>
       </c>
       <c r="F20">
-        <v>-0.0190121952967196</v>
+        <v>-0.06305923854942519</v>
       </c>
       <c r="G20">
-        <v>-0.0253707157523857</v>
+        <v>-0.03407955947006403</v>
       </c>
       <c r="H20">
-        <v>-0.02170914087964228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.07976160125593625</v>
+      </c>
+      <c r="I20">
+        <v>0.03136444680441087</v>
+      </c>
+      <c r="J20">
+        <v>-0.03746058518159202</v>
+      </c>
+      <c r="K20">
+        <v>0.05422039628621682</v>
+      </c>
+      <c r="L20">
+        <v>0.00194806505740932</v>
+      </c>
+      <c r="M20">
+        <v>-0.004057310438725267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01154777463468841</v>
+        <v>-0.02447888001102145</v>
       </c>
       <c r="C21">
-        <v>0.01295196861039494</v>
+        <v>-0.01198724899209106</v>
       </c>
       <c r="D21">
-        <v>0.01349980394437176</v>
+        <v>0.0145601019879628</v>
       </c>
       <c r="E21">
-        <v>-0.08055123741122244</v>
+        <v>-0.040271016979677</v>
       </c>
       <c r="F21">
-        <v>-0.001442158883904392</v>
+        <v>-0.03516755932927407</v>
       </c>
       <c r="G21">
-        <v>0.0812015621429456</v>
+        <v>0.08570117917118845</v>
       </c>
       <c r="H21">
-        <v>-0.02401023548193313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.05870405531657902</v>
+      </c>
+      <c r="I21">
+        <v>0.03061594421878075</v>
+      </c>
+      <c r="J21">
+        <v>0.07780908886907222</v>
+      </c>
+      <c r="K21">
+        <v>0.05383740283438782</v>
+      </c>
+      <c r="L21">
+        <v>-0.02131485152660675</v>
+      </c>
+      <c r="M21">
+        <v>0.08100937929983545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.033712657131512</v>
+        <v>-0.05089595529124356</v>
       </c>
       <c r="C22">
-        <v>0.06947358908738178</v>
+        <v>-0.06326937678084806</v>
       </c>
       <c r="D22">
-        <v>0.1118738596075992</v>
+        <v>0.3289253541534177</v>
       </c>
       <c r="E22">
-        <v>-0.4228865232888267</v>
+        <v>-0.5071632337679695</v>
       </c>
       <c r="F22">
-        <v>-0.2180319696291095</v>
+        <v>0.2753690936747802</v>
       </c>
       <c r="G22">
-        <v>-0.02936416456959668</v>
+        <v>0.02192009457119461</v>
       </c>
       <c r="H22">
-        <v>-0.3010896191411298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.08576145954085562</v>
+      </c>
+      <c r="I22">
+        <v>-0.06260319604064818</v>
+      </c>
+      <c r="J22">
+        <v>0.0003496556808533378</v>
+      </c>
+      <c r="K22">
+        <v>-0.01080828732128031</v>
+      </c>
+      <c r="L22">
+        <v>0.08514211301558271</v>
+      </c>
+      <c r="M22">
+        <v>0.04456154851304561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.03458831088286166</v>
+        <v>-0.05161906892943745</v>
       </c>
       <c r="C23">
-        <v>0.06832008742699189</v>
+        <v>-0.06351646758989628</v>
       </c>
       <c r="D23">
-        <v>0.1113343284824719</v>
+        <v>0.3297292589681667</v>
       </c>
       <c r="E23">
-        <v>-0.4245356434568184</v>
+        <v>-0.5102155956893525</v>
       </c>
       <c r="F23">
-        <v>-0.215779172475586</v>
+        <v>0.2712306871463515</v>
       </c>
       <c r="G23">
-        <v>-0.02829044712554585</v>
+        <v>0.02149821052545547</v>
       </c>
       <c r="H23">
-        <v>-0.297151225875839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.0858239849674125</v>
+      </c>
+      <c r="I23">
+        <v>-0.06778911475639678</v>
+      </c>
+      <c r="J23">
+        <v>0.001849670871580168</v>
+      </c>
+      <c r="K23">
+        <v>-0.01237831649189703</v>
+      </c>
+      <c r="L23">
+        <v>0.0834918328884497</v>
+      </c>
+      <c r="M23">
+        <v>0.0435988220272966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07111231847286577</v>
+        <v>-0.07475663610427775</v>
       </c>
       <c r="C24">
-        <v>0.08198144249020241</v>
+        <v>-0.074514308963222</v>
       </c>
       <c r="D24">
-        <v>-0.04199885251546902</v>
+        <v>-0.009896996087920605</v>
       </c>
       <c r="E24">
-        <v>-0.04391877591117493</v>
+        <v>-0.03934357739975888</v>
       </c>
       <c r="F24">
-        <v>0.01154288456684491</v>
+        <v>-0.08620841523495508</v>
       </c>
       <c r="G24">
-        <v>-0.01424524633443263</v>
+        <v>-0.01433160977130515</v>
       </c>
       <c r="H24">
-        <v>-0.003964887292385053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.0717983563543184</v>
+      </c>
+      <c r="I24">
+        <v>0.03832104879154564</v>
+      </c>
+      <c r="J24">
+        <v>-0.07815833906789546</v>
+      </c>
+      <c r="K24">
+        <v>0.01679773899001857</v>
+      </c>
+      <c r="L24">
+        <v>-0.04821965043009235</v>
+      </c>
+      <c r="M24">
+        <v>-0.005851302193637313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06314062568068636</v>
+        <v>-0.07149769975371432</v>
       </c>
       <c r="C25">
-        <v>0.04355448722860033</v>
+        <v>-0.04704422484528219</v>
       </c>
       <c r="D25">
-        <v>-0.04260012913240983</v>
+        <v>-0.01936978072044796</v>
       </c>
       <c r="E25">
-        <v>-0.03986640201432577</v>
+        <v>-0.03072722661380107</v>
       </c>
       <c r="F25">
-        <v>-0.010672184059896</v>
+        <v>-0.08623692466458779</v>
       </c>
       <c r="G25">
-        <v>-0.0330424348719069</v>
+        <v>-0.03849502942459247</v>
       </c>
       <c r="H25">
-        <v>0.01592929480753198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.08663673840623166</v>
+      </c>
+      <c r="I25">
+        <v>0.03071330917327218</v>
+      </c>
+      <c r="J25">
+        <v>-0.1003357393658249</v>
+      </c>
+      <c r="K25">
+        <v>0.001512563494443667</v>
+      </c>
+      <c r="L25">
+        <v>-0.04733837253949243</v>
+      </c>
+      <c r="M25">
+        <v>-0.007551560364897498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03806312740595296</v>
+        <v>-0.04065925106775209</v>
       </c>
       <c r="C26">
-        <v>0.02713427335877943</v>
+        <v>-0.02441061159964579</v>
       </c>
       <c r="D26">
-        <v>-0.03649189828822825</v>
+        <v>0.01107168491099446</v>
       </c>
       <c r="E26">
-        <v>-0.0005290070674493081</v>
+        <v>-0.02911534808663923</v>
       </c>
       <c r="F26">
-        <v>-0.03836574281796237</v>
+        <v>-0.03132090277827349</v>
       </c>
       <c r="G26">
-        <v>0.005646687466428852</v>
+        <v>-0.009167677542613495</v>
       </c>
       <c r="H26">
-        <v>-0.0331889744733039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05099652964281336</v>
+      </c>
+      <c r="I26">
+        <v>0.05710145897065722</v>
+      </c>
+      <c r="J26">
+        <v>0.1050461789670322</v>
+      </c>
+      <c r="K26">
+        <v>0.0222063689164695</v>
+      </c>
+      <c r="L26">
+        <v>0.03403473429557851</v>
+      </c>
+      <c r="M26">
+        <v>0.1246484121232528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1156906012426385</v>
+        <v>-0.1396431708369202</v>
       </c>
       <c r="C28">
-        <v>-0.2927533996876056</v>
+        <v>0.2869059703050841</v>
       </c>
       <c r="D28">
-        <v>-0.05413172335402967</v>
+        <v>-0.0190361702001084</v>
       </c>
       <c r="E28">
-        <v>-0.002306937643614495</v>
+        <v>-0.02645127876167234</v>
       </c>
       <c r="F28">
-        <v>-0.02480937796887352</v>
+        <v>0.003421523181517987</v>
       </c>
       <c r="G28">
-        <v>0.07034098294937599</v>
+        <v>0.0285721566282948</v>
       </c>
       <c r="H28">
-        <v>-0.0005376376151583175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.0007057746683693444</v>
+      </c>
+      <c r="I28">
+        <v>0.02400206273890918</v>
+      </c>
+      <c r="J28">
+        <v>0.0436030717087831</v>
+      </c>
+      <c r="K28">
+        <v>0.00808811037498466</v>
+      </c>
+      <c r="L28">
+        <v>0.03060235069697809</v>
+      </c>
+      <c r="M28">
+        <v>-0.03112095790986555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04766390534350602</v>
+        <v>-0.04566335298084243</v>
       </c>
       <c r="C29">
-        <v>0.007130514435556392</v>
+        <v>-0.02319748614457993</v>
       </c>
       <c r="D29">
-        <v>-0.01111436087634016</v>
+        <v>-0.01169412471615422</v>
       </c>
       <c r="E29">
-        <v>-0.02841309622305499</v>
+        <v>-0.02211913863402229</v>
       </c>
       <c r="F29">
-        <v>-0.03774148834890699</v>
+        <v>-0.04905093958687293</v>
       </c>
       <c r="G29">
-        <v>-0.01735727849277164</v>
+        <v>-0.05472590114562638</v>
       </c>
       <c r="H29">
-        <v>0.01281312595692093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.05846473640533574</v>
+      </c>
+      <c r="I29">
+        <v>0.002654113621544177</v>
+      </c>
+      <c r="J29">
+        <v>0.01873244969149259</v>
+      </c>
+      <c r="K29">
+        <v>0.002400727327466197</v>
+      </c>
+      <c r="L29">
+        <v>0.01433349381527841</v>
+      </c>
+      <c r="M29">
+        <v>0.01419623360924637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1242874974761365</v>
+        <v>-0.1038459076059816</v>
       </c>
       <c r="C30">
-        <v>0.07561923781092376</v>
+        <v>-0.06527169884626464</v>
       </c>
       <c r="D30">
-        <v>-0.074801114072147</v>
+        <v>-0.01393543409444119</v>
       </c>
       <c r="E30">
-        <v>-0.05007894616039183</v>
+        <v>-0.07939703159715386</v>
       </c>
       <c r="F30">
-        <v>-0.05443440426641857</v>
+        <v>-0.13504993193068</v>
       </c>
       <c r="G30">
-        <v>0.01423548265899661</v>
+        <v>0.02656671740751878</v>
       </c>
       <c r="H30">
-        <v>-0.02361731148665711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1715839419653795</v>
+      </c>
+      <c r="I30">
+        <v>-0.00401144291679416</v>
+      </c>
+      <c r="J30">
+        <v>-0.05904663977996388</v>
+      </c>
+      <c r="K30">
+        <v>0.1772097775286058</v>
+      </c>
+      <c r="L30">
+        <v>0.3773416495988093</v>
+      </c>
+      <c r="M30">
+        <v>-0.2217328386584695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04834573617957428</v>
+        <v>-0.03484206627225434</v>
       </c>
       <c r="C31">
-        <v>0.02169565922978217</v>
+        <v>-0.04287011172087542</v>
       </c>
       <c r="D31">
-        <v>-0.002414952250672608</v>
+        <v>0.01130742173859135</v>
       </c>
       <c r="E31">
-        <v>0.006838601218736722</v>
+        <v>-0.003901351222769895</v>
       </c>
       <c r="F31">
-        <v>-0.02298126907428406</v>
+        <v>-0.01317176885954844</v>
       </c>
       <c r="G31">
-        <v>-0.02481569119403518</v>
+        <v>-0.05408265041621763</v>
       </c>
       <c r="H31">
-        <v>-0.03631016463378656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.0304596581587208</v>
+      </c>
+      <c r="I31">
+        <v>0.007033834007080044</v>
+      </c>
+      <c r="J31">
+        <v>0.003262107354811679</v>
+      </c>
+      <c r="K31">
+        <v>0.03277231232976562</v>
+      </c>
+      <c r="L31">
+        <v>-0.009096769742094269</v>
+      </c>
+      <c r="M31">
+        <v>-0.005737998279048397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02476722736594663</v>
+        <v>-0.04619098164359758</v>
       </c>
       <c r="C32">
-        <v>-0.001973357949267649</v>
+        <v>0.002456367323694936</v>
       </c>
       <c r="D32">
-        <v>0.0367882822881434</v>
+        <v>0.02829525175178521</v>
       </c>
       <c r="E32">
-        <v>-0.07583480904601526</v>
+        <v>-0.04893679156624476</v>
       </c>
       <c r="F32">
-        <v>-0.01890242643747237</v>
+        <v>-0.04260204967778237</v>
       </c>
       <c r="G32">
-        <v>-0.01714848371932629</v>
+        <v>0.005434320134794597</v>
       </c>
       <c r="H32">
-        <v>-0.06333411470505551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.02561031173220989</v>
+      </c>
+      <c r="I32">
+        <v>0.07512219895574519</v>
+      </c>
+      <c r="J32">
+        <v>0.08115794813064636</v>
+      </c>
+      <c r="K32">
+        <v>0.01419189914467589</v>
+      </c>
+      <c r="L32">
+        <v>0.1111016693789905</v>
+      </c>
+      <c r="M32">
+        <v>-0.08223859638197813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09606524386199987</v>
+        <v>-0.09764221405370606</v>
       </c>
       <c r="C33">
-        <v>0.05913111495289011</v>
+        <v>-0.06659048179675302</v>
       </c>
       <c r="D33">
-        <v>-0.01136166722067598</v>
+        <v>0.02214005042796654</v>
       </c>
       <c r="E33">
-        <v>-0.002327866610281125</v>
+        <v>-0.01247022634847746</v>
       </c>
       <c r="F33">
-        <v>-0.02063607093861403</v>
+        <v>-0.05618231433994664</v>
       </c>
       <c r="G33">
-        <v>-0.03344856110662137</v>
+        <v>-0.05461982538398705</v>
       </c>
       <c r="H33">
-        <v>-0.03222279824765136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.05075031136472995</v>
+      </c>
+      <c r="I33">
+        <v>0.005891078692221982</v>
+      </c>
+      <c r="J33">
+        <v>0.02505831657108048</v>
+      </c>
+      <c r="K33">
+        <v>0.03478016640248697</v>
+      </c>
+      <c r="L33">
+        <v>-0.008080829438541413</v>
+      </c>
+      <c r="M33">
+        <v>-0.03514685631351957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05282503623892736</v>
+        <v>-0.06232245552828887</v>
       </c>
       <c r="C34">
-        <v>0.07711604944638367</v>
+        <v>-0.06167009493769385</v>
       </c>
       <c r="D34">
-        <v>-0.02490093141364414</v>
+        <v>-0.01099179891826469</v>
       </c>
       <c r="E34">
-        <v>-0.04541779229203824</v>
+        <v>-0.01950097991433646</v>
       </c>
       <c r="F34">
-        <v>-0.01252250609934588</v>
+        <v>-0.07714538480512367</v>
       </c>
       <c r="G34">
-        <v>-0.01757959118862809</v>
+        <v>-0.03319969717540634</v>
       </c>
       <c r="H34">
-        <v>-0.001608768238393186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.07205811391253054</v>
+      </c>
+      <c r="I34">
+        <v>0.03421654412551899</v>
+      </c>
+      <c r="J34">
+        <v>-0.07267481838101272</v>
+      </c>
+      <c r="K34">
+        <v>0.01498841976205419</v>
+      </c>
+      <c r="L34">
+        <v>-0.05240598725697106</v>
+      </c>
+      <c r="M34">
+        <v>0.01482447891609737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03816481628845824</v>
+        <v>-0.03019818341691555</v>
       </c>
       <c r="C35">
-        <v>0.01841658080203789</v>
+        <v>-0.02348344023779717</v>
       </c>
       <c r="D35">
-        <v>-0.006234065747506711</v>
+        <v>0.002707254751763644</v>
       </c>
       <c r="E35">
-        <v>-0.01899333508051646</v>
+        <v>-0.001113693655670511</v>
       </c>
       <c r="F35">
-        <v>-0.04152570513075571</v>
+        <v>-0.01245427715854599</v>
       </c>
       <c r="G35">
-        <v>-0.02852939911632365</v>
+        <v>-0.02506500389337934</v>
       </c>
       <c r="H35">
-        <v>-0.04531455701382953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.06090461660893531</v>
+      </c>
+      <c r="I35">
+        <v>0.03361388632447022</v>
+      </c>
+      <c r="J35">
+        <v>-0.03315823197155118</v>
+      </c>
+      <c r="K35">
+        <v>0.02041694018355519</v>
+      </c>
+      <c r="L35">
+        <v>0.02387888871124825</v>
+      </c>
+      <c r="M35">
+        <v>0.007450124536056498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02756285000287982</v>
+        <v>-0.03073527171602379</v>
       </c>
       <c r="C36">
-        <v>0.0178497703558659</v>
+        <v>-0.01745643912336418</v>
       </c>
       <c r="D36">
-        <v>-0.02483563717986627</v>
+        <v>-0.003204348997516408</v>
       </c>
       <c r="E36">
-        <v>-0.02759353870086565</v>
+        <v>-0.02944261129213725</v>
       </c>
       <c r="F36">
-        <v>-0.02001478410105836</v>
+        <v>-0.04661571295110202</v>
       </c>
       <c r="G36">
-        <v>-0.01738151960325586</v>
+        <v>-0.02714190005523368</v>
       </c>
       <c r="H36">
-        <v>-0.01744260431420021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05751543473186231</v>
+      </c>
+      <c r="I36">
+        <v>0.01279320617765549</v>
+      </c>
+      <c r="J36">
+        <v>0.01587034181998688</v>
+      </c>
+      <c r="K36">
+        <v>0.03345914748836783</v>
+      </c>
+      <c r="L36">
+        <v>-0.01285772894337176</v>
+      </c>
+      <c r="M36">
+        <v>0.06318279374548182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04034067684025285</v>
+        <v>-0.03411992497575211</v>
       </c>
       <c r="C38">
-        <v>0.0257926075562778</v>
+        <v>-0.04834255368680269</v>
       </c>
       <c r="D38">
-        <v>0.02912059742191239</v>
+        <v>0.0121316900155092</v>
       </c>
       <c r="E38">
-        <v>-0.05141757235141046</v>
+        <v>-0.02164725994297973</v>
       </c>
       <c r="F38">
-        <v>-0.003838245659850731</v>
+        <v>0.0415931908352306</v>
       </c>
       <c r="G38">
-        <v>0.009318010254978051</v>
+        <v>-0.01108640293023784</v>
       </c>
       <c r="H38">
-        <v>-0.03701914036189307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.08254042782978678</v>
+      </c>
+      <c r="I38">
+        <v>0.03181532499480481</v>
+      </c>
+      <c r="J38">
+        <v>0.09222842155097394</v>
+      </c>
+      <c r="K38">
+        <v>-0.05230965781986489</v>
+      </c>
+      <c r="L38">
+        <v>0.0580932417386836</v>
+      </c>
+      <c r="M38">
+        <v>0.0421438474132949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09355307285396909</v>
+        <v>-0.09237293224943974</v>
       </c>
       <c r="C39">
-        <v>0.09537303722478412</v>
+        <v>-0.0779360945809624</v>
       </c>
       <c r="D39">
-        <v>-0.01799396017027447</v>
+        <v>-0.004450985024389608</v>
       </c>
       <c r="E39">
-        <v>-0.03772382814056003</v>
+        <v>-0.03280777562775589</v>
       </c>
       <c r="F39">
-        <v>0.00955367983310579</v>
+        <v>-0.08854261063289311</v>
       </c>
       <c r="G39">
-        <v>-0.004484782249682124</v>
+        <v>-0.02407957784348764</v>
       </c>
       <c r="H39">
-        <v>0.002288075612679467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.0868381721418028</v>
+      </c>
+      <c r="I39">
+        <v>0.1091632522521347</v>
+      </c>
+      <c r="J39">
+        <v>-0.1493561600025308</v>
+      </c>
+      <c r="K39">
+        <v>0.03608512640658614</v>
+      </c>
+      <c r="L39">
+        <v>0.08549039196759438</v>
+      </c>
+      <c r="M39">
+        <v>-0.05840240514683678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.0623068091462781</v>
+        <v>-0.03925135300554081</v>
       </c>
       <c r="C40">
-        <v>0.02345631188844645</v>
+        <v>-0.05503697596217925</v>
       </c>
       <c r="D40">
-        <v>0.02062355566934167</v>
+        <v>0.05416597529415178</v>
       </c>
       <c r="E40">
-        <v>-0.1721330660999496</v>
+        <v>-0.06353910914458183</v>
       </c>
       <c r="F40">
-        <v>-0.07054041061467158</v>
+        <v>-0.1174070027010194</v>
       </c>
       <c r="G40">
-        <v>-0.02354559882804512</v>
+        <v>0.05229129288313156</v>
       </c>
       <c r="H40">
-        <v>-0.01001816267808683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.02733006011169686</v>
+      </c>
+      <c r="I40">
+        <v>0.08516885020361582</v>
+      </c>
+      <c r="J40">
+        <v>-0.02623854315165322</v>
+      </c>
+      <c r="K40">
+        <v>0.01785980117605214</v>
+      </c>
+      <c r="L40">
+        <v>0.09135694040991889</v>
+      </c>
+      <c r="M40">
+        <v>0.09412161678436053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04510007294967772</v>
+        <v>-0.0374514469878513</v>
       </c>
       <c r="C41">
-        <v>0.04975481187112021</v>
+        <v>-0.03665873929394814</v>
       </c>
       <c r="D41">
-        <v>-0.003899434155799253</v>
+        <v>-0.01384827144201509</v>
       </c>
       <c r="E41">
-        <v>-0.005927267854026731</v>
+        <v>0.02167713793967277</v>
       </c>
       <c r="F41">
-        <v>-0.0121671663860088</v>
+        <v>-0.03706475306981219</v>
       </c>
       <c r="G41">
-        <v>-0.01567867798567665</v>
+        <v>-0.02567708479965542</v>
       </c>
       <c r="H41">
-        <v>-0.01766277430356526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.003052532411354749</v>
+      </c>
+      <c r="I41">
+        <v>0.03910467413702893</v>
+      </c>
+      <c r="J41">
+        <v>-0.001009466851526945</v>
+      </c>
+      <c r="K41">
+        <v>0.01633104976767611</v>
+      </c>
+      <c r="L41">
+        <v>0.002314165348116317</v>
+      </c>
+      <c r="M41">
+        <v>-0.01174034732723532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05599890122232443</v>
+        <v>-0.05351109098764731</v>
       </c>
       <c r="C43">
-        <v>0.03916244775094403</v>
+        <v>-0.05174765442448988</v>
       </c>
       <c r="D43">
-        <v>-0.02245272161727788</v>
+        <v>-0.006324362855185926</v>
       </c>
       <c r="E43">
-        <v>-0.0294025478044944</v>
+        <v>-0.0250125935675504</v>
       </c>
       <c r="F43">
-        <v>-0.007112216812996368</v>
+        <v>-0.01975778874126923</v>
       </c>
       <c r="G43">
-        <v>0.00214559430611581</v>
+        <v>-0.04483427977001181</v>
       </c>
       <c r="H43">
-        <v>-0.06497078866348441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.001931327563496493</v>
+      </c>
+      <c r="I43">
+        <v>0.02768068354876733</v>
+      </c>
+      <c r="J43">
+        <v>-0.006666963178634099</v>
+      </c>
+      <c r="K43">
+        <v>0.01880749049041051</v>
+      </c>
+      <c r="L43">
+        <v>-0.02834665351474297</v>
+      </c>
+      <c r="M43">
+        <v>0.0002669440692597824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04861144984069606</v>
+        <v>-0.08159523413097887</v>
       </c>
       <c r="C44">
-        <v>0.02698951893098737</v>
+        <v>-0.05633016244071976</v>
       </c>
       <c r="D44">
-        <v>-0.06265667471926281</v>
+        <v>-0.03251202221182094</v>
       </c>
       <c r="E44">
-        <v>-0.1216130742306253</v>
+        <v>-0.1334686063742184</v>
       </c>
       <c r="F44">
-        <v>-0.02887292707077648</v>
+        <v>-0.1142128429305641</v>
       </c>
       <c r="G44">
-        <v>-0.003031742503130222</v>
+        <v>-0.02615543499347562</v>
       </c>
       <c r="H44">
-        <v>0.03558053006950268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.09312511156296001</v>
+      </c>
+      <c r="I44">
+        <v>0.05723428036432423</v>
+      </c>
+      <c r="J44">
+        <v>-0.03015622266433394</v>
+      </c>
+      <c r="K44">
+        <v>-0.0005992863403245071</v>
+      </c>
+      <c r="L44">
+        <v>0.05413101321061559</v>
+      </c>
+      <c r="M44">
+        <v>0.07663077798310493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02006521077784625</v>
+        <v>-0.0406919853474116</v>
       </c>
       <c r="C46">
-        <v>0.03336519278517706</v>
+        <v>-0.04252228413994776</v>
       </c>
       <c r="D46">
-        <v>-0.01195718037601882</v>
+        <v>-0.002334054235910307</v>
       </c>
       <c r="E46">
-        <v>-0.05489920762717061</v>
+        <v>-0.04229603994665921</v>
       </c>
       <c r="F46">
-        <v>-0.02325856292586338</v>
+        <v>-0.02483163112448434</v>
       </c>
       <c r="G46">
-        <v>-0.006214657793993827</v>
+        <v>-0.02669685495776069</v>
       </c>
       <c r="H46">
-        <v>0.01381530627170776</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.06387653957777271</v>
+      </c>
+      <c r="I46">
+        <v>0.01589708505252645</v>
+      </c>
+      <c r="J46">
+        <v>0.05754086183007996</v>
+      </c>
+      <c r="K46">
+        <v>0.002387312054074293</v>
+      </c>
+      <c r="L46">
+        <v>0.006849826678514635</v>
+      </c>
+      <c r="M46">
+        <v>0.03832777382769097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03000975056630174</v>
+        <v>-0.04446309247428316</v>
       </c>
       <c r="C47">
-        <v>-0.004558392790466703</v>
+        <v>-0.02694245375604436</v>
       </c>
       <c r="D47">
-        <v>0.005296380429119408</v>
+        <v>0.01703859096950976</v>
       </c>
       <c r="E47">
-        <v>-0.06187322138238518</v>
+        <v>-0.03059075370783083</v>
       </c>
       <c r="F47">
-        <v>-0.04105891129595264</v>
+        <v>-0.01769899369877196</v>
       </c>
       <c r="G47">
-        <v>-0.03072008254574976</v>
+        <v>-0.03695646280937266</v>
       </c>
       <c r="H47">
-        <v>0.001048782487217164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02863559256003247</v>
+      </c>
+      <c r="I47">
+        <v>-0.02035646325746792</v>
+      </c>
+      <c r="J47">
+        <v>0.002278006349649551</v>
+      </c>
+      <c r="K47">
+        <v>0.03424171612750653</v>
+      </c>
+      <c r="L47">
+        <v>-0.04118372423914761</v>
+      </c>
+      <c r="M47">
+        <v>0.04445255199516152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03626799207762013</v>
+        <v>-0.04127252458588777</v>
       </c>
       <c r="C48">
-        <v>0.02227487334979636</v>
+        <v>-0.01545942495226835</v>
       </c>
       <c r="D48">
-        <v>-0.007019527427104035</v>
+        <v>0.01899360979394946</v>
       </c>
       <c r="E48">
-        <v>-0.0450490486629014</v>
+        <v>-0.0310025342579682</v>
       </c>
       <c r="F48">
-        <v>-0.04148082408491867</v>
+        <v>-0.02697518246342158</v>
       </c>
       <c r="G48">
-        <v>-0.01613700749001372</v>
+        <v>-0.001146588248004974</v>
       </c>
       <c r="H48">
-        <v>-0.04879180562640344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06190172102013038</v>
+      </c>
+      <c r="I48">
+        <v>0.0218311832422279</v>
+      </c>
+      <c r="J48">
+        <v>-0.002267649500706786</v>
+      </c>
+      <c r="K48">
+        <v>0.0626647626784491</v>
+      </c>
+      <c r="L48">
+        <v>0.005184390468568619</v>
+      </c>
+      <c r="M48">
+        <v>0.05289693018099732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1847780688835858</v>
+        <v>-0.2226254842601909</v>
       </c>
       <c r="C49">
-        <v>0.1219276968552923</v>
+        <v>-0.08206072596695914</v>
       </c>
       <c r="D49">
-        <v>-0.07771319108417724</v>
+        <v>-0.08899197897438688</v>
       </c>
       <c r="E49">
-        <v>0.08209314298932603</v>
+        <v>0.09024560079996968</v>
       </c>
       <c r="F49">
-        <v>-0.04070148553319144</v>
+        <v>0.2099539684389121</v>
       </c>
       <c r="G49">
-        <v>0.1699086665520579</v>
+        <v>0.1885248128464024</v>
       </c>
       <c r="H49">
-        <v>0.07121063369098399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.008661355415571137</v>
+      </c>
+      <c r="I49">
+        <v>0.06285116773113089</v>
+      </c>
+      <c r="J49">
+        <v>-0.1225757707702142</v>
+      </c>
+      <c r="K49">
+        <v>-0.1751242685135226</v>
+      </c>
+      <c r="L49">
+        <v>-0.1187056627591705</v>
+      </c>
+      <c r="M49">
+        <v>-0.04724508436230515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05353871763410947</v>
+        <v>-0.04303286360361569</v>
       </c>
       <c r="C50">
-        <v>0.03007949913322339</v>
+        <v>-0.04266843211597986</v>
       </c>
       <c r="D50">
-        <v>-0.006931165249807342</v>
+        <v>0.01362742195159582</v>
       </c>
       <c r="E50">
-        <v>-0.01405965487822334</v>
+        <v>-0.003662437226752575</v>
       </c>
       <c r="F50">
-        <v>-0.04362350341395754</v>
+        <v>-0.03765557913710359</v>
       </c>
       <c r="G50">
-        <v>-0.05191300766082713</v>
+        <v>-0.05510863062674681</v>
       </c>
       <c r="H50">
-        <v>-0.002833269848134654</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03911184417830436</v>
+      </c>
+      <c r="I50">
+        <v>-0.02846288795685644</v>
+      </c>
+      <c r="J50">
+        <v>0.02226768458220302</v>
+      </c>
+      <c r="K50">
+        <v>-0.0007175147450946235</v>
+      </c>
+      <c r="L50">
+        <v>0.04360291023418165</v>
+      </c>
+      <c r="M50">
+        <v>0.0217703055182941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02614620719841796</v>
+        <v>-0.03217533287374128</v>
       </c>
       <c r="C51">
-        <v>0.006261935085701476</v>
+        <v>-0.005088764382863389</v>
       </c>
       <c r="D51">
-        <v>0.001898660583064149</v>
+        <v>-0.01730333466492</v>
       </c>
       <c r="E51">
-        <v>-0.01788857390448298</v>
+        <v>-0.01108415944843635</v>
       </c>
       <c r="F51">
-        <v>0.002823012422949641</v>
+        <v>0.02069645100071154</v>
       </c>
       <c r="G51">
-        <v>0.01931053691865741</v>
+        <v>0.01763223004135246</v>
       </c>
       <c r="H51">
-        <v>0.02641195867304211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.0192824836525163</v>
+      </c>
+      <c r="I51">
+        <v>0.009712491672917741</v>
+      </c>
+      <c r="J51">
+        <v>-0.07169274285337179</v>
+      </c>
+      <c r="K51">
+        <v>-0.02247458587059168</v>
+      </c>
+      <c r="L51">
+        <v>-0.06907630767699176</v>
+      </c>
+      <c r="M51">
+        <v>-0.05280751356139307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1652355668777916</v>
+        <v>-0.1534850431987795</v>
       </c>
       <c r="C53">
-        <v>0.02151322897834157</v>
+        <v>-0.05371940809665528</v>
       </c>
       <c r="D53">
-        <v>-0.03579924266854773</v>
+        <v>-0.02585554604295453</v>
       </c>
       <c r="E53">
-        <v>0.06151653436466296</v>
+        <v>0.04961512968455666</v>
       </c>
       <c r="F53">
-        <v>0.07745304870471494</v>
+        <v>0.0282239171310984</v>
       </c>
       <c r="G53">
-        <v>-0.2670680813334038</v>
+        <v>-0.2386741783945097</v>
       </c>
       <c r="H53">
-        <v>-0.03759254888469537</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.08814633478819364</v>
+      </c>
+      <c r="I53">
+        <v>-0.07573956824904444</v>
+      </c>
+      <c r="J53">
+        <v>0.03077137775697689</v>
+      </c>
+      <c r="K53">
+        <v>-0.07929112692352656</v>
+      </c>
+      <c r="L53">
+        <v>0.06268454879484291</v>
+      </c>
+      <c r="M53">
+        <v>-0.04422627192766703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05287407952507737</v>
+        <v>-0.05655576013331678</v>
       </c>
       <c r="C54">
-        <v>0.03899584202970357</v>
+        <v>-0.02981024858278012</v>
       </c>
       <c r="D54">
-        <v>-0.03164663490434291</v>
+        <v>0.004311833341840857</v>
       </c>
       <c r="E54">
-        <v>-0.03644011980974211</v>
+        <v>-0.03441545594046642</v>
       </c>
       <c r="F54">
-        <v>-0.009203678755578946</v>
+        <v>-0.1032265631298227</v>
       </c>
       <c r="G54">
-        <v>-0.002426706572352093</v>
+        <v>-0.03907160621692547</v>
       </c>
       <c r="H54">
-        <v>-0.03136437951889541</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.08225444929053721</v>
+      </c>
+      <c r="I54">
+        <v>0.008481822210732497</v>
+      </c>
+      <c r="J54">
+        <v>0.05425617483911971</v>
+      </c>
+      <c r="K54">
+        <v>0.05255657239083955</v>
+      </c>
+      <c r="L54">
+        <v>0.01469582049532515</v>
+      </c>
+      <c r="M54">
+        <v>0.05629260038114346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09338517862784367</v>
+        <v>-0.09054735238585136</v>
       </c>
       <c r="C55">
-        <v>0.008121343397388002</v>
+        <v>-0.04069341080822615</v>
       </c>
       <c r="D55">
-        <v>-0.02988570086681016</v>
+        <v>-0.02590354903431126</v>
       </c>
       <c r="E55">
-        <v>0.003436174789418788</v>
+        <v>0.01351032228518699</v>
       </c>
       <c r="F55">
-        <v>0.03007339587708746</v>
+        <v>-0.02359221931674436</v>
       </c>
       <c r="G55">
-        <v>-0.2384666827278059</v>
+        <v>-0.1660879193830175</v>
       </c>
       <c r="H55">
-        <v>-0.01258969201474294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.02544441731837378</v>
+      </c>
+      <c r="I55">
+        <v>-0.04260599776145526</v>
+      </c>
+      <c r="J55">
+        <v>0.01436741584466821</v>
+      </c>
+      <c r="K55">
+        <v>-0.06361225504831254</v>
+      </c>
+      <c r="L55">
+        <v>0.01358579929633132</v>
+      </c>
+      <c r="M55">
+        <v>0.003185491685712363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1699880658026215</v>
+        <v>-0.1465346298209961</v>
       </c>
       <c r="C56">
-        <v>0.01984099592198028</v>
+        <v>-0.07106213863830504</v>
       </c>
       <c r="D56">
-        <v>-0.06746516802201513</v>
+        <v>-0.03043470638366252</v>
       </c>
       <c r="E56">
-        <v>0.05728965646220947</v>
+        <v>0.02182555497610175</v>
       </c>
       <c r="F56">
-        <v>0.09214200128198256</v>
+        <v>0.01441270628153283</v>
       </c>
       <c r="G56">
-        <v>-0.2229644313971768</v>
+        <v>-0.233464879153663</v>
       </c>
       <c r="H56">
-        <v>-0.05304556540294152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1260686618467473</v>
+      </c>
+      <c r="I56">
+        <v>-0.05885398313671192</v>
+      </c>
+      <c r="J56">
+        <v>0.03533593946301836</v>
+      </c>
+      <c r="K56">
+        <v>-0.03678173408794762</v>
+      </c>
+      <c r="L56">
+        <v>0.067193111402642</v>
+      </c>
+      <c r="M56">
+        <v>0.01051562062134128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04931645851548257</v>
+        <v>-0.0414849082690243</v>
       </c>
       <c r="C58">
-        <v>0.03786338382424118</v>
+        <v>-0.03551205405769231</v>
       </c>
       <c r="D58">
-        <v>-0.044292895974437</v>
+        <v>0.02377366665897783</v>
       </c>
       <c r="E58">
-        <v>-0.2866558572769903</v>
+        <v>-0.08784993678036586</v>
       </c>
       <c r="F58">
-        <v>-0.230474723784732</v>
+        <v>0.02252447807664575</v>
       </c>
       <c r="G58">
-        <v>0.1328733394171902</v>
+        <v>0.07372378325676024</v>
       </c>
       <c r="H58">
-        <v>6.030500397415991e-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.231980376226482</v>
+      </c>
+      <c r="I58">
+        <v>-0.07264495939757958</v>
+      </c>
+      <c r="J58">
+        <v>-0.3844336116131064</v>
+      </c>
+      <c r="K58">
+        <v>0.4221196950740267</v>
+      </c>
+      <c r="L58">
+        <v>-0.1150976894009091</v>
+      </c>
+      <c r="M58">
+        <v>0.01855118901668927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.245960201446395</v>
+        <v>-0.2270356906357144</v>
       </c>
       <c r="C59">
-        <v>-0.4160201406566167</v>
+        <v>0.30907807650779</v>
       </c>
       <c r="D59">
-        <v>-0.05930480896881266</v>
+        <v>-0.01677955630762959</v>
       </c>
       <c r="E59">
-        <v>-0.04960504457782992</v>
+        <v>0.0005914297850969788</v>
       </c>
       <c r="F59">
-        <v>0.06996487919663068</v>
+        <v>-0.0240736817903285</v>
       </c>
       <c r="G59">
-        <v>-0.005783171674573286</v>
+        <v>-0.06474801790876852</v>
       </c>
       <c r="H59">
-        <v>-0.0005020858046790276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09585562542635219</v>
+      </c>
+      <c r="I59">
+        <v>0.03861969122349946</v>
+      </c>
+      <c r="J59">
+        <v>-0.01357400025010655</v>
+      </c>
+      <c r="K59">
+        <v>-0.01105235118653131</v>
+      </c>
+      <c r="L59">
+        <v>-0.03655081746612243</v>
+      </c>
+      <c r="M59">
+        <v>-0.01784234448624721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2436701014180459</v>
+        <v>-0.2407028165854133</v>
       </c>
       <c r="C60">
-        <v>0.08422773983376472</v>
+        <v>-0.1132933057363437</v>
       </c>
       <c r="D60">
-        <v>-0.08928874601296205</v>
+        <v>-0.08403407616413282</v>
       </c>
       <c r="E60">
-        <v>0.01344304269230831</v>
+        <v>0.0519173132176009</v>
       </c>
       <c r="F60">
-        <v>0.001440640987546524</v>
+        <v>0.08841130556408584</v>
       </c>
       <c r="G60">
-        <v>0.05883278540887077</v>
+        <v>0.07816157217600696</v>
       </c>
       <c r="H60">
-        <v>0.09527015876403756</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1024469248941026</v>
+      </c>
+      <c r="I60">
+        <v>-0.1718226094845713</v>
+      </c>
+      <c r="J60">
+        <v>0.00078028278277207</v>
+      </c>
+      <c r="K60">
+        <v>-0.0609121743313431</v>
+      </c>
+      <c r="L60">
+        <v>-0.04898060184729504</v>
+      </c>
+      <c r="M60">
+        <v>-0.2070994475728037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07856492783779821</v>
+        <v>-0.08565230760216831</v>
       </c>
       <c r="C61">
-        <v>0.05899510816185238</v>
+        <v>-0.05803382610444916</v>
       </c>
       <c r="D61">
-        <v>-0.01708389139003028</v>
+        <v>-0.01845899509351336</v>
       </c>
       <c r="E61">
-        <v>-0.01202443583654882</v>
+        <v>-0.02323614334683823</v>
       </c>
       <c r="F61">
-        <v>-0.01222830870540191</v>
+        <v>-0.08732498766256727</v>
       </c>
       <c r="G61">
-        <v>-0.01802229863827623</v>
+        <v>-0.06040569049397135</v>
       </c>
       <c r="H61">
-        <v>-0.01430075986865159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.0452896364934804</v>
+      </c>
+      <c r="I61">
+        <v>0.06745990082240214</v>
+      </c>
+      <c r="J61">
+        <v>-0.06735676298611402</v>
+      </c>
+      <c r="K61">
+        <v>0.00849959944606269</v>
+      </c>
+      <c r="L61">
+        <v>0.03094512603501727</v>
+      </c>
+      <c r="M61">
+        <v>-0.02003745670775813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1615847597911931</v>
+        <v>-0.1467239515283503</v>
       </c>
       <c r="C62">
-        <v>0.04600633283680218</v>
+        <v>-0.0752907509415731</v>
       </c>
       <c r="D62">
-        <v>-0.02338360564780778</v>
+        <v>-0.01680914174938584</v>
       </c>
       <c r="E62">
-        <v>0.1069096460509139</v>
+        <v>0.06804294412468767</v>
       </c>
       <c r="F62">
-        <v>0.1008039565043316</v>
+        <v>-0.01715753100752455</v>
       </c>
       <c r="G62">
-        <v>-0.2484746705530548</v>
+        <v>-0.2101147608143812</v>
       </c>
       <c r="H62">
-        <v>-0.02688289065798082</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.07416069516702145</v>
+      </c>
+      <c r="I62">
+        <v>-0.08003257494103089</v>
+      </c>
+      <c r="J62">
+        <v>0.08185076221977013</v>
+      </c>
+      <c r="K62">
+        <v>-0.09352493386097492</v>
+      </c>
+      <c r="L62">
+        <v>0.05321397880376855</v>
+      </c>
+      <c r="M62">
+        <v>0.09539038235385715</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04719550464251814</v>
+        <v>-0.04609915958587646</v>
       </c>
       <c r="C63">
-        <v>0.0521653318425169</v>
+        <v>-0.03050893066883797</v>
       </c>
       <c r="D63">
-        <v>-0.0199659353159065</v>
+        <v>0.006170385792155864</v>
       </c>
       <c r="E63">
-        <v>-0.009680311521768957</v>
+        <v>-0.002953368989347483</v>
       </c>
       <c r="F63">
-        <v>-0.00708076532370576</v>
+        <v>-0.06181556595175156</v>
       </c>
       <c r="G63">
-        <v>-0.04275391764898698</v>
+        <v>-0.01736771753132811</v>
       </c>
       <c r="H63">
-        <v>0.01906358026874426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.07123320465089023</v>
+      </c>
+      <c r="I63">
+        <v>-0.01504601750978917</v>
+      </c>
+      <c r="J63">
+        <v>0.002663175079447211</v>
+      </c>
+      <c r="K63">
+        <v>0.008173147570477225</v>
+      </c>
+      <c r="L63">
+        <v>0.006945616975914535</v>
+      </c>
+      <c r="M63">
+        <v>0.03266082973436081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1034762469076192</v>
+        <v>-0.1024820283915108</v>
       </c>
       <c r="C64">
-        <v>0.03572243541750572</v>
+        <v>-0.04745445586860299</v>
       </c>
       <c r="D64">
-        <v>-0.03473832599630099</v>
+        <v>-0.02530895782020766</v>
       </c>
       <c r="E64">
-        <v>-0.03758402028845655</v>
+        <v>-0.03389198322191243</v>
       </c>
       <c r="F64">
-        <v>-0.03927203745292971</v>
+        <v>-0.05519873731215128</v>
       </c>
       <c r="G64">
-        <v>0.01328303587350293</v>
+        <v>0.009846644059138834</v>
       </c>
       <c r="H64">
-        <v>0.008487734651628649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.0534766869527765</v>
+      </c>
+      <c r="I64">
+        <v>0.00322314231810104</v>
+      </c>
+      <c r="J64">
+        <v>-0.04320620888622829</v>
+      </c>
+      <c r="K64">
+        <v>-0.03072861022755288</v>
+      </c>
+      <c r="L64">
+        <v>0.08691843222721507</v>
+      </c>
+      <c r="M64">
+        <v>-0.01408553530664894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1280511234870658</v>
+        <v>-0.1258576575214153</v>
       </c>
       <c r="C65">
-        <v>0.06937348865844219</v>
+        <v>-0.04064545829954744</v>
       </c>
       <c r="D65">
-        <v>-0.05649261141810389</v>
+        <v>-0.01273015509257579</v>
       </c>
       <c r="E65">
-        <v>-0.06500998088911268</v>
+        <v>0.01329426844991629</v>
       </c>
       <c r="F65">
-        <v>-0.1736732498251171</v>
+        <v>-0.06778455064026445</v>
       </c>
       <c r="G65">
-        <v>0.05642750963858671</v>
+        <v>0.1647110207715507</v>
       </c>
       <c r="H65">
-        <v>0.2667784420673719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1986402297796739</v>
+      </c>
+      <c r="I65">
+        <v>-0.5964660316651158</v>
+      </c>
+      <c r="J65">
+        <v>0.2679525053244198</v>
+      </c>
+      <c r="K65">
+        <v>0.08708831514692748</v>
+      </c>
+      <c r="L65">
+        <v>-0.1262392414989751</v>
+      </c>
+      <c r="M65">
+        <v>0.008455136168543518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1555887246846357</v>
+        <v>-0.1259803131946557</v>
       </c>
       <c r="C66">
-        <v>0.1498227240335341</v>
+        <v>-0.1234394320399375</v>
       </c>
       <c r="D66">
-        <v>-0.05531803553838581</v>
+        <v>0.0003990774404340758</v>
       </c>
       <c r="E66">
-        <v>0.0005240818940958893</v>
+        <v>-0.02722695873106444</v>
       </c>
       <c r="F66">
-        <v>0.03905244222225208</v>
+        <v>-0.1027398080426603</v>
       </c>
       <c r="G66">
-        <v>-0.006257879416391891</v>
+        <v>-0.03943025278753074</v>
       </c>
       <c r="H66">
-        <v>0.008461420927168721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.07135470234246262</v>
+      </c>
+      <c r="I66">
+        <v>0.1681890775853829</v>
+      </c>
+      <c r="J66">
+        <v>-0.1572746407976744</v>
+      </c>
+      <c r="K66">
+        <v>-0.0129367516601259</v>
+      </c>
+      <c r="L66">
+        <v>0.1391521170626099</v>
+      </c>
+      <c r="M66">
+        <v>-0.1173881678650939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07226986092412366</v>
+        <v>-0.08549211758770238</v>
       </c>
       <c r="C67">
-        <v>0.04521012700561447</v>
+        <v>-0.06892512211476823</v>
       </c>
       <c r="D67">
-        <v>-0.004268524933688647</v>
+        <v>-0.01551833053161739</v>
       </c>
       <c r="E67">
-        <v>-0.01416891358643358</v>
+        <v>-0.0386235734418286</v>
       </c>
       <c r="F67">
-        <v>0.01201273255292284</v>
+        <v>0.02296186179514497</v>
       </c>
       <c r="G67">
-        <v>0.02688836096304318</v>
+        <v>-0.01749611935805366</v>
       </c>
       <c r="H67">
-        <v>-0.03602277319043087</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1147897332872057</v>
+      </c>
+      <c r="I67">
+        <v>0.04042709515416412</v>
+      </c>
+      <c r="J67">
+        <v>0.07162234169031315</v>
+      </c>
+      <c r="K67">
+        <v>-0.07490229324458325</v>
+      </c>
+      <c r="L67">
+        <v>0.009761769251351231</v>
+      </c>
+      <c r="M67">
+        <v>0.01516195577031147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1042470296603501</v>
+        <v>-0.1220583214051655</v>
       </c>
       <c r="C68">
-        <v>-0.259770422549582</v>
+        <v>0.2712640753688048</v>
       </c>
       <c r="D68">
-        <v>-0.01443287892038308</v>
+        <v>0.01058945220340125</v>
       </c>
       <c r="E68">
-        <v>-0.01897450131837993</v>
+        <v>-0.02635484021717877</v>
       </c>
       <c r="F68">
-        <v>-0.01311719188619707</v>
+        <v>0.0009106446383753661</v>
       </c>
       <c r="G68">
-        <v>-0.02985273402305282</v>
+        <v>-0.03049577950854193</v>
       </c>
       <c r="H68">
-        <v>-0.02743774963609657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02744641716139798</v>
+      </c>
+      <c r="I68">
+        <v>-0.05253433050819632</v>
+      </c>
+      <c r="J68">
+        <v>0.02579012231934039</v>
+      </c>
+      <c r="K68">
+        <v>0.0249224187133749</v>
+      </c>
+      <c r="L68">
+        <v>0.03312211752010975</v>
+      </c>
+      <c r="M68">
+        <v>0.03306569060333339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04758042897023676</v>
+        <v>-0.04631605483446848</v>
       </c>
       <c r="C69">
-        <v>0.02520586209807924</v>
+        <v>-0.02529359466379684</v>
       </c>
       <c r="D69">
-        <v>-0.01038157730370196</v>
+        <v>0.01035266710118023</v>
       </c>
       <c r="E69">
-        <v>-0.02843409697204142</v>
+        <v>-0.005896100242627946</v>
       </c>
       <c r="F69">
-        <v>0.04243669833988959</v>
+        <v>-0.02718732099801201</v>
       </c>
       <c r="G69">
-        <v>-0.02945112761283855</v>
+        <v>-0.03708402298804809</v>
       </c>
       <c r="H69">
-        <v>0.006076784214951066</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01641170959359251</v>
+      </c>
+      <c r="I69">
+        <v>-0.0008422359198760178</v>
+      </c>
+      <c r="J69">
+        <v>-0.01746433822138531</v>
+      </c>
+      <c r="K69">
+        <v>0.02282857338383946</v>
+      </c>
+      <c r="L69">
+        <v>-0.04958946442531213</v>
+      </c>
+      <c r="M69">
+        <v>0.05576689805847667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03089294912675025</v>
+        <v>-0.05496248451723332</v>
       </c>
       <c r="C70">
-        <v>0.0119769402696211</v>
+        <v>-0.03595690902501699</v>
       </c>
       <c r="D70">
-        <v>0.01177399899751041</v>
+        <v>-0.02568013771317364</v>
       </c>
       <c r="E70">
-        <v>-0.008589746718951047</v>
+        <v>0.03254097128995112</v>
       </c>
       <c r="F70">
-        <v>-0.01087761588569841</v>
+        <v>-0.03427395269968115</v>
       </c>
       <c r="G70">
-        <v>0.09801026685013875</v>
+        <v>0.03653372042668895</v>
       </c>
       <c r="H70">
-        <v>-0.0461694350244048</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.05596859574400214</v>
+      </c>
+      <c r="I70">
+        <v>0.1292878645605646</v>
+      </c>
+      <c r="J70">
+        <v>0.140397789694634</v>
+      </c>
+      <c r="K70">
+        <v>0.1636376433941458</v>
+      </c>
+      <c r="L70">
+        <v>-0.02767577490645863</v>
+      </c>
+      <c r="M70">
+        <v>0.07438223737555824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1101960064196546</v>
+        <v>-0.1363697783453677</v>
       </c>
       <c r="C71">
-        <v>-0.2765111357658025</v>
+        <v>0.2804191310923191</v>
       </c>
       <c r="D71">
-        <v>-0.04703921584177312</v>
+        <v>-0.01074619896905361</v>
       </c>
       <c r="E71">
-        <v>-0.009091646801654635</v>
+        <v>-0.03479616378282224</v>
       </c>
       <c r="F71">
-        <v>-0.01692871227483836</v>
+        <v>-0.004914245640757838</v>
       </c>
       <c r="G71">
-        <v>0.006420617825023444</v>
+        <v>-0.01898112958864048</v>
       </c>
       <c r="H71">
-        <v>-0.02885892106643669</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02871890806033902</v>
+      </c>
+      <c r="I71">
+        <v>-0.01244661044477483</v>
+      </c>
+      <c r="J71">
+        <v>0.004196726500040259</v>
+      </c>
+      <c r="K71">
+        <v>-0.00388086736105363</v>
+      </c>
+      <c r="L71">
+        <v>0.007586473698072352</v>
+      </c>
+      <c r="M71">
+        <v>0.01505525129860831</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1842542705472516</v>
+        <v>-0.1449490673459409</v>
       </c>
       <c r="C72">
-        <v>0.02244450435648091</v>
+        <v>-0.03479114313331909</v>
       </c>
       <c r="D72">
-        <v>0.214328296931819</v>
+        <v>0.1480073249578347</v>
       </c>
       <c r="E72">
-        <v>0.02532896756915734</v>
+        <v>0.1082419962100747</v>
       </c>
       <c r="F72">
-        <v>0.01160426200024584</v>
+        <v>-0.09311126244725107</v>
       </c>
       <c r="G72">
-        <v>0.003172832330982432</v>
+        <v>-0.01143878748661052</v>
       </c>
       <c r="H72">
-        <v>0.1313899224155306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02759931126700723</v>
+      </c>
+      <c r="I72">
+        <v>-0.1578482659943116</v>
+      </c>
+      <c r="J72">
+        <v>0.02643394700077823</v>
+      </c>
+      <c r="K72">
+        <v>-0.06324133538174638</v>
+      </c>
+      <c r="L72">
+        <v>-0.03949477650364243</v>
+      </c>
+      <c r="M72">
+        <v>0.0001065998779024672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2639233069126303</v>
+        <v>-0.2341466253496389</v>
       </c>
       <c r="C73">
-        <v>0.1740602268766079</v>
+        <v>-0.1543631893358563</v>
       </c>
       <c r="D73">
-        <v>-0.1628767557472279</v>
+        <v>-0.1940726463271101</v>
       </c>
       <c r="E73">
-        <v>0.09422527076271445</v>
+        <v>0.1324222867905589</v>
       </c>
       <c r="F73">
-        <v>-0.1449761798413698</v>
+        <v>0.3631335928709831</v>
       </c>
       <c r="G73">
-        <v>0.1266595677469539</v>
+        <v>0.2753420545567054</v>
       </c>
       <c r="H73">
-        <v>0.1584468153787864</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.06125931546490437</v>
+      </c>
+      <c r="I73">
+        <v>-0.1095277305754541</v>
+      </c>
+      <c r="J73">
+        <v>-0.4476540214131632</v>
+      </c>
+      <c r="K73">
+        <v>-0.2259001743749845</v>
+      </c>
+      <c r="L73">
+        <v>-0.04896383768136556</v>
+      </c>
+      <c r="M73">
+        <v>0.05136978449307476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.08834368365707525</v>
+        <v>-0.08795351672368477</v>
       </c>
       <c r="C74">
-        <v>0.02301793132892031</v>
+        <v>-0.06603298467660451</v>
       </c>
       <c r="D74">
-        <v>-0.02033748335849433</v>
+        <v>-0.01151939631793648</v>
       </c>
       <c r="E74">
-        <v>0.02349166324991629</v>
+        <v>0.01969817257264779</v>
       </c>
       <c r="F74">
-        <v>-0.02866585176954224</v>
+        <v>0.02196929227335559</v>
       </c>
       <c r="G74">
-        <v>-0.1639436170429622</v>
+        <v>-0.1444839132979632</v>
       </c>
       <c r="H74">
-        <v>-0.006476317650034982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01673919976649403</v>
+      </c>
+      <c r="I74">
+        <v>-0.03874553839684242</v>
+      </c>
+      <c r="J74">
+        <v>-0.03900989550760445</v>
+      </c>
+      <c r="K74">
+        <v>-0.05572061979985576</v>
+      </c>
+      <c r="L74">
+        <v>0.01101186817737763</v>
+      </c>
+      <c r="M74">
+        <v>0.06029353295860498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09939291227437169</v>
+        <v>-0.09090727143568625</v>
       </c>
       <c r="C75">
-        <v>0.02108038799096461</v>
+        <v>-0.05027875523357287</v>
       </c>
       <c r="D75">
-        <v>-0.02234211923275662</v>
+        <v>-0.000433977294882764</v>
       </c>
       <c r="E75">
-        <v>0.01599556164065079</v>
+        <v>0.01635066663469823</v>
       </c>
       <c r="F75">
-        <v>0.08251182246007382</v>
+        <v>0.01092939533845938</v>
       </c>
       <c r="G75">
-        <v>-0.09898657597778107</v>
+        <v>-0.116078578904967</v>
       </c>
       <c r="H75">
-        <v>-0.04015389301415791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.08178884428574532</v>
+      </c>
+      <c r="I75">
+        <v>-0.01246428027194967</v>
+      </c>
+      <c r="J75">
+        <v>0.0200039242373891</v>
+      </c>
+      <c r="K75">
+        <v>0.03619312531116749</v>
+      </c>
+      <c r="L75">
+        <v>-0.06201600947944619</v>
+      </c>
+      <c r="M75">
+        <v>0.02615096648173542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1326686459834746</v>
+        <v>-0.1039521899094757</v>
       </c>
       <c r="C76">
-        <v>0.03516543170094187</v>
+        <v>-0.0731412094717013</v>
       </c>
       <c r="D76">
-        <v>-0.02852187528706032</v>
+        <v>-0.02705119922032801</v>
       </c>
       <c r="E76">
-        <v>0.01672427145767825</v>
+        <v>0.02143388526506399</v>
       </c>
       <c r="F76">
-        <v>0.05379652837563262</v>
+        <v>0.03058553062242195</v>
       </c>
       <c r="G76">
-        <v>-0.2413861687612643</v>
+        <v>-0.2189916392844478</v>
       </c>
       <c r="H76">
-        <v>-0.02007338465473924</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.07903890494206348</v>
+      </c>
+      <c r="I76">
+        <v>-0.06263712965899156</v>
+      </c>
+      <c r="J76">
+        <v>0.008721149750904687</v>
+      </c>
+      <c r="K76">
+        <v>-0.08020887123725401</v>
+      </c>
+      <c r="L76">
+        <v>0.08675814533128209</v>
+      </c>
+      <c r="M76">
+        <v>0.003099394753627858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.09171332150123965</v>
+        <v>-0.07374527231915604</v>
       </c>
       <c r="C77">
-        <v>0.04742709791309946</v>
+        <v>-0.01984639628053447</v>
       </c>
       <c r="D77">
-        <v>0.05955304819924982</v>
+        <v>0.01570024954991499</v>
       </c>
       <c r="E77">
-        <v>-0.4013848669462359</v>
+        <v>-0.1352681613764968</v>
       </c>
       <c r="F77">
-        <v>0.4902589362360377</v>
+        <v>-0.5770508979443219</v>
       </c>
       <c r="G77">
-        <v>0.1681511286791996</v>
+        <v>0.3885861151247606</v>
       </c>
       <c r="H77">
-        <v>0.5160105666227252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.5244214258817036</v>
+      </c>
+      <c r="I77">
+        <v>-0.06666462425899347</v>
+      </c>
+      <c r="J77">
+        <v>-0.102551998876833</v>
+      </c>
+      <c r="K77">
+        <v>-0.1702091375300219</v>
+      </c>
+      <c r="L77">
+        <v>0.1038687220135241</v>
+      </c>
+      <c r="M77">
+        <v>0.02253528468106884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1216359255552948</v>
+        <v>-0.162823483863845</v>
       </c>
       <c r="C78">
-        <v>0.09967770049224003</v>
+        <v>-0.1104868711399915</v>
       </c>
       <c r="D78">
-        <v>-0.01993073321279577</v>
+        <v>0.01937430129752354</v>
       </c>
       <c r="E78">
-        <v>-0.1005016149873624</v>
+        <v>-0.1907862500531948</v>
       </c>
       <c r="F78">
-        <v>-0.09030277010975606</v>
+        <v>-0.03199264877153528</v>
       </c>
       <c r="G78">
-        <v>0.03390265927163511</v>
+        <v>0.06271136613841913</v>
       </c>
       <c r="H78">
-        <v>-0.04302902079350585</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1581313202127198</v>
+      </c>
+      <c r="I78">
+        <v>0.1551439941137066</v>
+      </c>
+      <c r="J78">
+        <v>0.1586370797374392</v>
+      </c>
+      <c r="K78">
+        <v>-0.1854510183597329</v>
+      </c>
+      <c r="L78">
+        <v>-0.276051641466223</v>
+      </c>
+      <c r="M78">
+        <v>-0.5821819402429802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1463240022507243</v>
+        <v>-0.136690669895615</v>
       </c>
       <c r="C79">
-        <v>0.05783182461694342</v>
+        <v>-0.07536718833282656</v>
       </c>
       <c r="D79">
-        <v>-0.03353818226969493</v>
+        <v>-0.01127971998903415</v>
       </c>
       <c r="E79">
-        <v>0.03168537151943263</v>
+        <v>0.006484666220096142</v>
       </c>
       <c r="F79">
-        <v>0.09503830764973778</v>
+        <v>-0.01255859604236324</v>
       </c>
       <c r="G79">
-        <v>-0.1539725283551462</v>
+        <v>-0.169850837545089</v>
       </c>
       <c r="H79">
-        <v>-0.05813773949377296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08713818257967665</v>
+      </c>
+      <c r="I79">
+        <v>-0.06349878002790085</v>
+      </c>
+      <c r="J79">
+        <v>0.03996392519818739</v>
+      </c>
+      <c r="K79">
+        <v>-0.01652013393658066</v>
+      </c>
+      <c r="L79">
+        <v>0.007992030767689305</v>
+      </c>
+      <c r="M79">
+        <v>0.0829331097983748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01779328385299554</v>
+        <v>-0.03765199678497873</v>
       </c>
       <c r="C80">
-        <v>-0.007292997386931818</v>
+        <v>-0.01541787243175547</v>
       </c>
       <c r="D80">
-        <v>0.006130182879607422</v>
+        <v>-0.05008296933759607</v>
       </c>
       <c r="E80">
-        <v>0.005273938229792031</v>
+        <v>0.07035824032552597</v>
       </c>
       <c r="F80">
-        <v>-0.04124211475500941</v>
+        <v>-0.0423149748634074</v>
       </c>
       <c r="G80">
-        <v>-0.009702475221161317</v>
+        <v>-0.01357897755626978</v>
       </c>
       <c r="H80">
-        <v>0.04333793873709807</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.1126031740728848</v>
+      </c>
+      <c r="I80">
+        <v>0.04393324262071526</v>
+      </c>
+      <c r="J80">
+        <v>-0.01758963134330206</v>
+      </c>
+      <c r="K80">
+        <v>-0.005205609921160006</v>
+      </c>
+      <c r="L80">
+        <v>-0.08007902058944603</v>
+      </c>
+      <c r="M80">
+        <v>-0.005571633153033237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1208805195193564</v>
+        <v>-0.1210552458500756</v>
       </c>
       <c r="C81">
-        <v>0.04252217165160087</v>
+        <v>-0.05272887991112179</v>
       </c>
       <c r="D81">
-        <v>-0.04052771507527959</v>
+        <v>-0.01310892158693556</v>
       </c>
       <c r="E81">
-        <v>0.02292986084828744</v>
+        <v>0.004992304769153032</v>
       </c>
       <c r="F81">
-        <v>0.04554765571027068</v>
+        <v>-0.01630337338731234</v>
       </c>
       <c r="G81">
-        <v>-0.09955390913407229</v>
+        <v>-0.1667976350611571</v>
       </c>
       <c r="H81">
-        <v>-0.009770143466497655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.04895204458927425</v>
+      </c>
+      <c r="I81">
+        <v>-0.005318519692303802</v>
+      </c>
+      <c r="J81">
+        <v>-0.0329483692960087</v>
+      </c>
+      <c r="K81">
+        <v>0.021762860694571</v>
+      </c>
+      <c r="L81">
+        <v>-0.01220076416379472</v>
+      </c>
+      <c r="M81">
+        <v>0.01703491742395791</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1169340065299027</v>
+        <v>-0.1181645572481972</v>
       </c>
       <c r="C82">
-        <v>0.05376622323783903</v>
+        <v>-0.05987734432756251</v>
       </c>
       <c r="D82">
-        <v>-0.06362844665270433</v>
+        <v>-0.01863620335949012</v>
       </c>
       <c r="E82">
-        <v>0.05530161767800622</v>
+        <v>0.02562801769151251</v>
       </c>
       <c r="F82">
-        <v>0.139656555355316</v>
+        <v>0.01639545139689587</v>
       </c>
       <c r="G82">
-        <v>-0.2542446752934274</v>
+        <v>-0.2522629675366376</v>
       </c>
       <c r="H82">
-        <v>-0.08680347675050384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.09858861413103677</v>
+      </c>
+      <c r="I82">
+        <v>0.03608860654937179</v>
+      </c>
+      <c r="J82">
+        <v>0.01447364329656399</v>
+      </c>
+      <c r="K82">
+        <v>-0.01595469512489112</v>
+      </c>
+      <c r="L82">
+        <v>0.0376335101594101</v>
+      </c>
+      <c r="M82">
+        <v>0.1514163676628753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.04834247477925768</v>
+        <v>-0.07529044834268143</v>
       </c>
       <c r="C83">
-        <v>0.03337025139454572</v>
+        <v>-0.05952016886627033</v>
       </c>
       <c r="D83">
-        <v>-0.03731197129507758</v>
+        <v>-0.0304194307412924</v>
       </c>
       <c r="E83">
-        <v>0.01945305372220252</v>
+        <v>-0.005877335349905168</v>
       </c>
       <c r="F83">
-        <v>0.006588189829139556</v>
+        <v>-0.01904025240311972</v>
       </c>
       <c r="G83">
-        <v>0.111092224873185</v>
+        <v>0.03260038262936536</v>
       </c>
       <c r="H83">
-        <v>-0.03872274390104144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.001177152801170122</v>
+      </c>
+      <c r="I83">
+        <v>0.09308443974308615</v>
+      </c>
+      <c r="J83">
+        <v>0.05264040301923428</v>
+      </c>
+      <c r="K83">
+        <v>0.08725139896020034</v>
+      </c>
+      <c r="L83">
+        <v>-0.04430522644079589</v>
+      </c>
+      <c r="M83">
+        <v>0.01454968028012941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05300021447213512</v>
+        <v>-0.04028130314049248</v>
       </c>
       <c r="C84">
-        <v>0.02241910168728449</v>
+        <v>0.02409454995049779</v>
       </c>
       <c r="D84">
-        <v>0.009438591241931511</v>
+        <v>0.03064046793258648</v>
       </c>
       <c r="E84">
-        <v>0.02706130248671066</v>
+        <v>-0.0007861399778036264</v>
       </c>
       <c r="F84">
-        <v>-0.106201656244118</v>
+        <v>0.03518418425353981</v>
       </c>
       <c r="G84">
-        <v>-0.02961729536544692</v>
+        <v>0.1268429885686484</v>
       </c>
       <c r="H84">
-        <v>-0.07868974823089567</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2433030769149055</v>
+      </c>
+      <c r="I84">
+        <v>0.2523973011661523</v>
+      </c>
+      <c r="J84">
+        <v>0.207204624404829</v>
+      </c>
+      <c r="K84">
+        <v>-0.3842691651180876</v>
+      </c>
+      <c r="L84">
+        <v>0.04377002993827285</v>
+      </c>
+      <c r="M84">
+        <v>0.2260769687396917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07690220184382561</v>
+        <v>-0.106586621059511</v>
       </c>
       <c r="C85">
-        <v>0.04432929035167688</v>
+        <v>-0.05290600348759342</v>
       </c>
       <c r="D85">
-        <v>-0.06221024795762562</v>
+        <v>-0.04616489762449879</v>
       </c>
       <c r="E85">
-        <v>0.0155792798834234</v>
+        <v>-0.007321328179312065</v>
       </c>
       <c r="F85">
-        <v>0.05248936307845085</v>
+        <v>-0.005789299546003318</v>
       </c>
       <c r="G85">
-        <v>-0.1735401131630207</v>
+        <v>-0.1768060832712098</v>
       </c>
       <c r="H85">
-        <v>-0.003023968991069028</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.06364061470821471</v>
+      </c>
+      <c r="I85">
+        <v>-0.05605433857404528</v>
+      </c>
+      <c r="J85">
+        <v>0.03392223134545199</v>
+      </c>
+      <c r="K85">
+        <v>-0.04171757199636456</v>
+      </c>
+      <c r="L85">
+        <v>-0.01724017034025122</v>
+      </c>
+      <c r="M85">
+        <v>0.04099116503922415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03725178751761891</v>
+        <v>-0.07103497576922845</v>
       </c>
       <c r="C86">
-        <v>0.05097607330883997</v>
+        <v>-0.02063096543196269</v>
       </c>
       <c r="D86">
-        <v>0.009848428920560643</v>
+        <v>-0.0002313427120603139</v>
       </c>
       <c r="E86">
-        <v>-0.03836715304491335</v>
+        <v>-0.05509060780196917</v>
       </c>
       <c r="F86">
-        <v>-0.04112392769788825</v>
+        <v>-0.01009655240482608</v>
       </c>
       <c r="G86">
-        <v>0.04391587048077935</v>
+        <v>0.06916570057446889</v>
       </c>
       <c r="H86">
-        <v>0.0801206680526771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1253546049202807</v>
+      </c>
+      <c r="I86">
+        <v>0.2295316281494514</v>
+      </c>
+      <c r="J86">
+        <v>0.2494453375034462</v>
+      </c>
+      <c r="K86">
+        <v>-0.2614128411804794</v>
+      </c>
+      <c r="L86">
+        <v>-0.2581240641947524</v>
+      </c>
+      <c r="M86">
+        <v>0.03246608972109472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09765840488690082</v>
+        <v>-0.1154453231287565</v>
       </c>
       <c r="C87">
-        <v>0.06549538262414734</v>
+        <v>-0.0657516840830282</v>
       </c>
       <c r="D87">
-        <v>0.007135218699181459</v>
+        <v>0.0201560669737385</v>
       </c>
       <c r="E87">
-        <v>-0.1654236169382791</v>
+        <v>-0.07346515185166991</v>
       </c>
       <c r="F87">
-        <v>0.07729102837978427</v>
+        <v>-0.1744489211731268</v>
       </c>
       <c r="G87">
-        <v>0.04556680361795319</v>
+        <v>0.1544787502399705</v>
       </c>
       <c r="H87">
-        <v>0.1381712333387107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.04468360928877601</v>
+      </c>
+      <c r="I87">
+        <v>0.02561721563045354</v>
+      </c>
+      <c r="J87">
+        <v>-0.01637531246274581</v>
+      </c>
+      <c r="K87">
+        <v>-0.04511948005858624</v>
+      </c>
+      <c r="L87">
+        <v>0.07171457085701759</v>
+      </c>
+      <c r="M87">
+        <v>0.1250395225634883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04693339010576447</v>
+        <v>-0.0592738527546833</v>
       </c>
       <c r="C88">
-        <v>0.03756303625471231</v>
+        <v>-0.05343664185893925</v>
       </c>
       <c r="D88">
-        <v>-0.01540383589352098</v>
+        <v>-0.02790384821848971</v>
       </c>
       <c r="E88">
-        <v>-0.007483085362081162</v>
+        <v>0.007508902671709809</v>
       </c>
       <c r="F88">
-        <v>-0.003674026928122707</v>
+        <v>-0.03438886826017172</v>
       </c>
       <c r="G88">
-        <v>0.0217571890048728</v>
+        <v>-0.02416658316257125</v>
       </c>
       <c r="H88">
-        <v>-0.001378871929683755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03900069157121523</v>
+      </c>
+      <c r="I88">
+        <v>0.03289013553585803</v>
+      </c>
+      <c r="J88">
+        <v>-0.02936517817451</v>
+      </c>
+      <c r="K88">
+        <v>0.01141276782217436</v>
+      </c>
+      <c r="L88">
+        <v>-0.01039031039336817</v>
+      </c>
+      <c r="M88">
+        <v>-0.02314246092516651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1669680434310406</v>
+        <v>-0.2202358929869471</v>
       </c>
       <c r="C89">
-        <v>-0.3071068127739147</v>
+        <v>0.3550735975245597</v>
       </c>
       <c r="D89">
-        <v>-0.08448593519668744</v>
+        <v>-0.05264397342612576</v>
       </c>
       <c r="E89">
-        <v>-0.09260761775126562</v>
+        <v>-0.07273732827479498</v>
       </c>
       <c r="F89">
-        <v>-0.01118315880328065</v>
+        <v>0.01013907547103023</v>
       </c>
       <c r="G89">
-        <v>0.0401652300878863</v>
+        <v>-0.00676306532155055</v>
       </c>
       <c r="H89">
-        <v>-0.02653004012759098</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01023820988314947</v>
+      </c>
+      <c r="I89">
+        <v>0.04808279512099112</v>
+      </c>
+      <c r="J89">
+        <v>-0.09292673850017574</v>
+      </c>
+      <c r="K89">
+        <v>0.08205456835574437</v>
+      </c>
+      <c r="L89">
+        <v>-0.03856686856442822</v>
+      </c>
+      <c r="M89">
+        <v>-0.009690252172161427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1325645145009706</v>
+        <v>-0.1499618738275464</v>
       </c>
       <c r="C90">
-        <v>-0.2669189910617288</v>
+        <v>0.2653104796465924</v>
       </c>
       <c r="D90">
-        <v>-0.02375594855353231</v>
+        <v>-0.009897576404005145</v>
       </c>
       <c r="E90">
-        <v>-0.06266327108326372</v>
+        <v>-0.02545961027221078</v>
       </c>
       <c r="F90">
-        <v>-0.03112510518713353</v>
+        <v>-0.02337503070466581</v>
       </c>
       <c r="G90">
-        <v>0.03140968079380446</v>
+        <v>0.0249571037279102</v>
       </c>
       <c r="H90">
-        <v>0.0122274459372814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02876437426386226</v>
+      </c>
+      <c r="I90">
+        <v>-0.002589855372469765</v>
+      </c>
+      <c r="J90">
+        <v>-0.04570091510400498</v>
+      </c>
+      <c r="K90">
+        <v>-0.01926825366604108</v>
+      </c>
+      <c r="L90">
+        <v>0.03565888658846864</v>
+      </c>
+      <c r="M90">
+        <v>-0.03795699470293291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08544398916404061</v>
+        <v>-0.07523892067687726</v>
       </c>
       <c r="C91">
-        <v>0.03079673035779708</v>
+        <v>-0.05382255334275315</v>
       </c>
       <c r="D91">
-        <v>-0.01866602902378041</v>
+        <v>-0.007594645695091829</v>
       </c>
       <c r="E91">
-        <v>-0.001907165811698964</v>
+        <v>0.004004773286225389</v>
       </c>
       <c r="F91">
-        <v>0.02982167227443469</v>
+        <v>0.01178969452611188</v>
       </c>
       <c r="G91">
-        <v>-0.1086159665919726</v>
+        <v>-0.09088754358297027</v>
       </c>
       <c r="H91">
-        <v>-0.02419519767290597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.05079550586519627</v>
+      </c>
+      <c r="I91">
+        <v>-0.02020640377661813</v>
+      </c>
+      <c r="J91">
+        <v>-0.01798671847532059</v>
+      </c>
+      <c r="K91">
+        <v>0.007689073715375404</v>
+      </c>
+      <c r="L91">
+        <v>-0.02154917801704881</v>
+      </c>
+      <c r="M91">
+        <v>0.002267742418352728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1475342556520896</v>
+        <v>-0.1698584291797954</v>
       </c>
       <c r="C92">
-        <v>-0.308726172802033</v>
+        <v>0.3028030364204039</v>
       </c>
       <c r="D92">
-        <v>-0.06315339781692088</v>
+        <v>-0.01511002521998783</v>
       </c>
       <c r="E92">
-        <v>-0.020714503738038</v>
+        <v>-0.05336211232817618</v>
       </c>
       <c r="F92">
-        <v>-0.06868135016354628</v>
+        <v>0.01740780556915115</v>
       </c>
       <c r="G92">
-        <v>0.001241492112509802</v>
+        <v>-0.03706943019481145</v>
       </c>
       <c r="H92">
-        <v>-0.06124276538984519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03062622598020684</v>
+      </c>
+      <c r="I92">
+        <v>0.01643317955265023</v>
+      </c>
+      <c r="J92">
+        <v>-0.0357216304752648</v>
+      </c>
+      <c r="K92">
+        <v>0.007940940190495595</v>
+      </c>
+      <c r="L92">
+        <v>0.002797887490345002</v>
+      </c>
+      <c r="M92">
+        <v>0.009302606817418355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1362186935108253</v>
+        <v>-0.1633777283222547</v>
       </c>
       <c r="C93">
-        <v>-0.2511227121547513</v>
+        <v>0.2879932175898571</v>
       </c>
       <c r="D93">
-        <v>-0.03420498833150586</v>
+        <v>-0.009209477395425216</v>
       </c>
       <c r="E93">
-        <v>-0.02577794784513822</v>
+        <v>-0.008121467809424356</v>
       </c>
       <c r="F93">
-        <v>-0.02283595518149284</v>
+        <v>0.005082176206808812</v>
       </c>
       <c r="G93">
-        <v>0.05690311964859391</v>
+        <v>0.009931059345275375</v>
       </c>
       <c r="H93">
-        <v>-0.004706721602655581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01651696569120794</v>
+      </c>
+      <c r="I93">
+        <v>0.0146008321623852</v>
+      </c>
+      <c r="J93">
+        <v>0.02723690920257792</v>
+      </c>
+      <c r="K93">
+        <v>0.004216928297936093</v>
+      </c>
+      <c r="L93">
+        <v>0.01852401463628773</v>
+      </c>
+      <c r="M93">
+        <v>0.002825036878526284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08542553853809941</v>
+        <v>-0.1044737767424972</v>
       </c>
       <c r="C94">
-        <v>0.06226016990425765</v>
+        <v>-0.07721246484514614</v>
       </c>
       <c r="D94">
-        <v>-0.02339569448271179</v>
+        <v>-0.02064960075190776</v>
       </c>
       <c r="E94">
-        <v>-0.008554980312984274</v>
+        <v>-0.01440848388671486</v>
       </c>
       <c r="F94">
-        <v>0.04917599573992406</v>
+        <v>0.04780427742046646</v>
       </c>
       <c r="G94">
-        <v>-0.137968339415549</v>
+        <v>-0.1251909593840839</v>
       </c>
       <c r="H94">
-        <v>-0.06720443035248272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.04503490249232323</v>
+      </c>
+      <c r="I94">
+        <v>-0.02174586685943491</v>
+      </c>
+      <c r="J94">
+        <v>0.003945484415034066</v>
+      </c>
+      <c r="K94">
+        <v>0.03870537963547332</v>
+      </c>
+      <c r="L94">
+        <v>-0.05474785534839243</v>
+      </c>
+      <c r="M94">
+        <v>0.03622015974716281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1019537179596679</v>
+        <v>-0.136836143204454</v>
       </c>
       <c r="C95">
-        <v>0.1103846123421416</v>
+        <v>-0.07739514382490001</v>
       </c>
       <c r="D95">
-        <v>-0.08985691101192156</v>
+        <v>-0.03555734375578045</v>
       </c>
       <c r="E95">
-        <v>-0.01773168528416094</v>
+        <v>-0.06280962790905256</v>
       </c>
       <c r="F95">
-        <v>-0.04762400778041715</v>
+        <v>-0.03987562164509337</v>
       </c>
       <c r="G95">
-        <v>0.02232615380750881</v>
+        <v>0.1441187148144351</v>
       </c>
       <c r="H95">
-        <v>0.04796376993762529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1580829214332314</v>
+      </c>
+      <c r="I95">
+        <v>0.03930285209942817</v>
+      </c>
+      <c r="J95">
+        <v>-0.03131520812273456</v>
+      </c>
+      <c r="K95">
+        <v>0.02732373095309811</v>
+      </c>
+      <c r="L95">
+        <v>-0.1679991277700562</v>
+      </c>
+      <c r="M95">
+        <v>0.569257966050026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.318427544077669</v>
+        <v>-0.1773145025806094</v>
       </c>
       <c r="C97">
-        <v>0.002154640937698612</v>
+        <v>-0.005382181039441688</v>
       </c>
       <c r="D97">
-        <v>0.8621023248901891</v>
+        <v>0.8084662866899991</v>
       </c>
       <c r="E97">
-        <v>0.1905422763765656</v>
+        <v>0.4794897994853155</v>
       </c>
       <c r="F97">
-        <v>-0.0773050102288822</v>
+        <v>-0.04425882607333512</v>
       </c>
       <c r="G97">
-        <v>0.04974297990431086</v>
+        <v>0.05592825346269929</v>
       </c>
       <c r="H97">
-        <v>0.03626756545258435</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.0486330940563075</v>
+      </c>
+      <c r="I97">
+        <v>0.05152243443276375</v>
+      </c>
+      <c r="J97">
+        <v>-0.07749902323461914</v>
+      </c>
+      <c r="K97">
+        <v>0.0038008208406407</v>
+      </c>
+      <c r="L97">
+        <v>-0.0202150730476483</v>
+      </c>
+      <c r="M97">
+        <v>-0.02553210807206073</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.247830425981432</v>
+        <v>-0.2580318751893886</v>
       </c>
       <c r="C98">
-        <v>0.1165179300970328</v>
+        <v>-0.1289052422777596</v>
       </c>
       <c r="D98">
-        <v>-0.1792108136234292</v>
+        <v>-0.1345109019886022</v>
       </c>
       <c r="E98">
-        <v>0.3697257315174992</v>
+        <v>0.2000728228699648</v>
       </c>
       <c r="F98">
-        <v>-0.04367450340053507</v>
+        <v>0.291799933545107</v>
       </c>
       <c r="G98">
-        <v>0.5120630140928752</v>
+        <v>0.3123018457813944</v>
       </c>
       <c r="H98">
-        <v>-0.2617792978341355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1390566656259339</v>
+      </c>
+      <c r="I98">
+        <v>0.2350797848190706</v>
+      </c>
+      <c r="J98">
+        <v>0.3553967779181026</v>
+      </c>
+      <c r="K98">
+        <v>0.3700644755067968</v>
+      </c>
+      <c r="L98">
+        <v>0.3766905237273792</v>
+      </c>
+      <c r="M98">
+        <v>-0.0192838545260221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.07217245682970547</v>
+        <v>-0.07601480784755403</v>
       </c>
       <c r="C99">
-        <v>0.06169996335066902</v>
+        <v>-0.06153137075508896</v>
       </c>
       <c r="D99">
-        <v>0.05924705702480558</v>
+        <v>0.02940251488917245</v>
       </c>
       <c r="E99">
-        <v>-0.141569146090773</v>
+        <v>-0.0553015483314228</v>
       </c>
       <c r="F99">
-        <v>0.6275365173848526</v>
+        <v>-0.0147902205581872</v>
       </c>
       <c r="G99">
-        <v>0.2569278560906199</v>
+        <v>-0.0268664737986315</v>
       </c>
       <c r="H99">
-        <v>-0.4895613655955444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3739600444528833</v>
+      </c>
+      <c r="I99">
+        <v>0.2222478423890381</v>
+      </c>
+      <c r="J99">
+        <v>0.07901794657069708</v>
+      </c>
+      <c r="K99">
+        <v>0.3829040048916765</v>
+      </c>
+      <c r="L99">
+        <v>-0.5531949212938627</v>
+      </c>
+      <c r="M99">
+        <v>-0.00794369556243309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04762649546209565</v>
+        <v>-0.04574054430699397</v>
       </c>
       <c r="C101">
-        <v>0.007815797007385987</v>
+        <v>-0.02315266923052005</v>
       </c>
       <c r="D101">
-        <v>-0.01242219579174236</v>
+        <v>-0.01321277631464487</v>
       </c>
       <c r="E101">
-        <v>-0.02696798674874321</v>
+        <v>-0.02229920986350389</v>
       </c>
       <c r="F101">
-        <v>-0.03773570260051828</v>
+        <v>-0.04757546975939065</v>
       </c>
       <c r="G101">
-        <v>-0.01594875235115759</v>
+        <v>-0.05510475806237273</v>
       </c>
       <c r="H101">
-        <v>0.01187353784103697</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.05756229257917383</v>
+      </c>
+      <c r="I101">
+        <v>0.004143664116294025</v>
+      </c>
+      <c r="J101">
+        <v>0.016934767406111</v>
+      </c>
+      <c r="K101">
+        <v>-0.0006300617723954301</v>
+      </c>
+      <c r="L101">
+        <v>0.01412363197999653</v>
+      </c>
+      <c r="M101">
+        <v>0.01022071665557904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
